--- a/mbs-perturbation/bloated/welm/bloated_welm_tanh_results.xlsx
+++ b/mbs-perturbation/bloated/welm/bloated_welm_tanh_results.xlsx
@@ -465,7 +465,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9529914529914529</v>
+        <v>0.9530516431924883</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5807174887892377</v>
+        <v>0.4907407407407407</v>
       </c>
     </row>
     <row r="3">
@@ -482,7 +482,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9444444444444444</v>
+        <v>0.9389671361502347</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -491,7 +491,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6497747747747747</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="4">
@@ -499,7 +499,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.944206008583691</v>
+        <v>0.9386792452830188</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -508,7 +508,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.484965034965035</v>
+        <v>0.6733668341708543</v>
       </c>
     </row>
     <row r="5">
@@ -516,7 +516,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9141630901287554</v>
+        <v>0.9433962264150944</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -525,7 +525,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.848943661971831</v>
+        <v>0.7568973315241971</v>
       </c>
     </row>
     <row r="6">
@@ -533,7 +533,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9656652360515021</v>
+        <v>0.9433962264150944</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5372222222222223</v>
+        <v>0.7333333333333333</v>
       </c>
     </row>
     <row r="7">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9442940464399692</v>
+        <v>0.9434980954911861</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -561,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6203246365446201</v>
+        <v>0.6548676479538251</v>
       </c>
     </row>
   </sheetData>
